--- a/Eagle Project Donations.xlsx
+++ b/Eagle Project Donations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">2901 Harlock Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tammy Burley</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL DONATIONS</t>
@@ -494,10 +497,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1048,34 +1051,48 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="B19" s="20" t="n">
-        <f aca="false">SUM(B2:B18)</f>
-        <v>516.24</v>
+        <v>29.04</v>
       </c>
       <c r="C19" s="21" t="n">
-        <f aca="false">SUM(C2:C18)</f>
-        <v>530</v>
-      </c>
-      <c r="D19" s="22" t="n">
-        <f aca="false">SUM(D2:D18)</f>
+        <v>30</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="20" t="n">
+        <f aca="false">SUM(B2:B19)</f>
+        <v>545.28</v>
+      </c>
+      <c r="C20" s="21" t="n">
+        <f aca="false">SUM(C2:C19)</f>
+        <v>560</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <f aca="false">SUM(D2:D19)</f>
         <v>50</v>
       </c>
-      <c r="E19" s="23" t="n">
-        <f aca="false">SUM(E2:E18)</f>
+      <c r="E20" s="23" t="n">
+        <f aca="false">SUM(E2:E19)</f>
         <v>880</v>
       </c>
-      <c r="F19" s="24" t="n">
-        <f aca="false">SUM(F2:F18)</f>
+      <c r="F20" s="24" t="n">
+        <f aca="false">SUM(F2:F19)</f>
         <v>200</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="25" t="n">
-        <f aca="false">SUM(B2:F18)</f>
-        <v>2176.24</v>
+      <c r="J20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="25" t="n">
+        <f aca="false">SUM(B2:B19)+SUM(D2:F19)</f>
+        <v>1675.28</v>
       </c>
     </row>
   </sheetData>

--- a/Eagle Project Donations.xlsx
+++ b/Eagle Project Donations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">1010 Tortoise Cv</t>
   </si>
   <si>
+    <t xml:space="preserve">TOTAL DONATIONS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daniel Walton</t>
   </si>
   <si>
@@ -193,7 +196,13 @@
     <t xml:space="preserve">Tammy Burley</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL DONATIONS</t>
+    <t xml:space="preserve">Verl Beebe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">707 Pine Tree Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeLand</t>
   </si>
 </sst>
 </file>
@@ -202,8 +211,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -315,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,23 +333,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,55 +361,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,20 +450,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="37.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
@@ -522,43 +475,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -566,14 +519,10 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="n">
+      <c r="E2" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -596,13 +545,9 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F3" s="17"/>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
@@ -621,20 +566,19 @@
       <c r="M3" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="s">
-        <v>21</v>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -651,20 +595,20 @@
       <c r="M4" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="O4" s="10" t="n">
+        <f aca="false">SUM(E2:E200)+SUM(F2:F200)+SUM(D2:D200)+SUM(B2:B200)</f>
+        <v>1775.28</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18" t="s">
-        <v>23</v>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
@@ -684,32 +628,24 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
       <c r="M6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="17"/>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
@@ -729,20 +665,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18" t="s">
-        <v>29</v>
+      <c r="G8" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>16</v>
@@ -759,20 +691,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16" t="n">
-        <v>75</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
@@ -789,17 +717,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F10" s="17"/>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
@@ -819,20 +743,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="F11" s="17"/>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
@@ -849,19 +769,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>97.5</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
@@ -878,22 +795,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="13" t="n">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>29.04</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18" t="s">
-        <v>41</v>
+      <c r="G13" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>16</v>
@@ -907,25 +821,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18" t="s">
-        <v>44</v>
+      <c r="G14" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>2062</v>
@@ -936,19 +847,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>73.05</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18" t="s">
-        <v>48</v>
+      <c r="G15" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
@@ -965,22 +873,19 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>97.5</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18" t="s">
-        <v>50</v>
+      <c r="G16" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>16</v>
@@ -994,22 +899,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>24.15</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
       <c r="G17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>16</v>
@@ -1024,18 +926,14 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24" t="n">
+      <c r="A18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>200</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>15</v>
@@ -1051,48 +949,43 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="20" t="n">
+      <c r="A19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>29.04</v>
       </c>
-      <c r="C19" s="21" t="n">
+      <c r="C19" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
+      <c r="M19" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="20" t="n">
-        <f aca="false">SUM(B2:B19)</f>
-        <v>545.28</v>
-      </c>
-      <c r="C20" s="21" t="n">
-        <f aca="false">SUM(C2:C19)</f>
-        <v>560</v>
-      </c>
-      <c r="D20" s="22" t="n">
-        <f aca="false">SUM(D2:D19)</f>
-        <v>50</v>
-      </c>
-      <c r="E20" s="23" t="n">
-        <f aca="false">SUM(E2:E19)</f>
-        <v>880</v>
-      </c>
-      <c r="F20" s="24" t="n">
-        <f aca="false">SUM(F2:F19)</f>
-        <v>200</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="25" t="n">
-        <f aca="false">SUM(B2:B19)+SUM(D2:F19)</f>
-        <v>1675.28</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>32724</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>2685</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
